--- a/config_10.26/permission_server_config.xlsx
+++ b/config_10.26/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="2214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="2214">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -16253,7 +16253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D406" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -30656,13 +30656,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1139" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1172" sqref="B1172"/>
+      <selection pane="bottomRight" activeCell="E1126" sqref="E1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57077,20 +57077,20 @@
       <c r="B1108" s="21">
         <v>505</v>
       </c>
-      <c r="C1108" s="44" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1108" s="44" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E1108" s="18">
+      <c r="C1108" s="21" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1108" s="21" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1108" s="21">
         <v>5</v>
       </c>
-      <c r="F1108" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1108" s="44" t="s">
-        <v>1959</v>
+      <c r="F1108" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="21" t="s">
+        <v>2090</v>
       </c>
     </row>
     <row r="1109" spans="1:7">
@@ -57098,22 +57098,22 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="21">
-        <v>505</v>
-      </c>
-      <c r="C1109" s="21" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1109" s="21" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E1109" s="21">
+        <v>506</v>
+      </c>
+      <c r="C1109" s="44" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1109" s="44" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1109" s="18">
         <v>5</v>
       </c>
-      <c r="F1109" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1109" s="21" t="s">
-        <v>2090</v>
+      <c r="F1109" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1109" s="44" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="1110" spans="1:7">
@@ -57123,20 +57123,20 @@
       <c r="B1110" s="21">
         <v>506</v>
       </c>
-      <c r="C1110" s="44" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1110" s="44" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E1110" s="18">
-        <v>5</v>
-      </c>
-      <c r="F1110" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1110" s="44" t="s">
-        <v>1959</v>
+      <c r="C1110" s="10" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1110" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1110" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1110" s="122" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="1111" spans="1:7">
@@ -57144,22 +57144,22 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="21">
-        <v>506</v>
-      </c>
-      <c r="C1111" s="10" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D1111" s="21">
-        <v>1</v>
-      </c>
-      <c r="E1111" s="21">
-        <v>4</v>
-      </c>
-      <c r="F1111" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1111" s="122" t="s">
-        <v>2107</v>
+        <v>507</v>
+      </c>
+      <c r="C1111" s="124" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D1111" s="44" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1111" s="18">
+        <v>5</v>
+      </c>
+      <c r="F1111" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="44" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -57169,20 +57169,20 @@
       <c r="B1112" s="21">
         <v>507</v>
       </c>
-      <c r="C1112" s="124" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D1112" s="44" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E1112" s="18">
-        <v>5</v>
-      </c>
-      <c r="F1112" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1112" s="44" t="s">
-        <v>1959</v>
+      <c r="C1112" s="10" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1112" s="21">
+        <v>2</v>
+      </c>
+      <c r="E1112" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1112" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="122" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="1113" spans="1:7">
@@ -57196,16 +57196,16 @@
         <v>1649</v>
       </c>
       <c r="D1113" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1113" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1113" s="21">
         <v>1</v>
       </c>
       <c r="G1113" s="122" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -57213,22 +57213,22 @@
         <v>1113</v>
       </c>
       <c r="B1114" s="21">
-        <v>507</v>
-      </c>
-      <c r="C1114" s="10" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D1114" s="21">
-        <v>4</v>
-      </c>
-      <c r="E1114" s="21">
-        <v>4</v>
-      </c>
-      <c r="F1114" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1114" s="122" t="s">
-        <v>2108</v>
+        <v>508</v>
+      </c>
+      <c r="C1114" s="44" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1114" s="44" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1114" s="18">
+        <v>5</v>
+      </c>
+      <c r="F1114" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1114" s="44" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -57238,20 +57238,20 @@
       <c r="B1115" s="21">
         <v>508</v>
       </c>
-      <c r="C1115" s="44" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1115" s="44" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E1115" s="18">
+      <c r="C1115" s="10" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1115" s="21">
         <v>5</v>
       </c>
-      <c r="F1115" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1115" s="44" t="s">
-        <v>1959</v>
+      <c r="E1115" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1115" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1115" s="122" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="1116" spans="1:7">
@@ -57265,16 +57265,16 @@
         <v>1649</v>
       </c>
       <c r="D1116" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1116" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1116" s="21">
         <v>1</v>
       </c>
       <c r="G1116" s="122" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
@@ -57282,22 +57282,22 @@
         <v>1116</v>
       </c>
       <c r="B1117" s="21">
-        <v>508</v>
-      </c>
-      <c r="C1117" s="10" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D1117" s="21">
-        <v>7</v>
-      </c>
-      <c r="E1117" s="21">
-        <v>4</v>
-      </c>
-      <c r="F1117" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1117" s="122" t="s">
-        <v>2109</v>
+        <v>509</v>
+      </c>
+      <c r="C1117" s="44" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1117" s="44" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1117" s="18">
+        <v>5</v>
+      </c>
+      <c r="F1117" s="18">
+        <v>1</v>
+      </c>
+      <c r="G1117" s="44" t="s">
+        <v>1959</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -57307,20 +57307,20 @@
       <c r="B1118" s="21">
         <v>509</v>
       </c>
-      <c r="C1118" s="44" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1118" s="44" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E1118" s="18">
-        <v>5</v>
-      </c>
-      <c r="F1118" s="18">
-        <v>1</v>
-      </c>
-      <c r="G1118" s="44" t="s">
-        <v>1959</v>
+      <c r="C1118" s="10" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1118" s="21">
+        <v>8</v>
+      </c>
+      <c r="E1118" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1118" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="122" t="s">
+        <v>2111</v>
       </c>
     </row>
     <row r="1119" spans="1:7">
@@ -57328,22 +57328,22 @@
         <v>1118</v>
       </c>
       <c r="B1119" s="21">
-        <v>509</v>
-      </c>
-      <c r="C1119" s="10" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D1119" s="21">
-        <v>8</v>
+        <v>510</v>
+      </c>
+      <c r="C1119" s="21" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D1119" s="21" t="s">
+        <v>2089</v>
       </c>
       <c r="E1119" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1119" s="21">
         <v>1</v>
       </c>
-      <c r="G1119" s="122" t="s">
-        <v>2111</v>
+      <c r="G1119" s="21" t="s">
+        <v>2090</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -57351,22 +57351,22 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="21">
-        <v>510</v>
-      </c>
-      <c r="C1120" s="21" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D1120" s="21" t="s">
-        <v>2089</v>
+        <v>511</v>
+      </c>
+      <c r="C1120" s="122" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D1120" s="122" t="s">
+        <v>2128</v>
       </c>
       <c r="E1120" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1120" s="21">
         <v>1</v>
       </c>
-      <c r="G1120" s="21" t="s">
-        <v>2090</v>
+      <c r="G1120" s="122" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="1121" spans="1:7">
@@ -57374,13 +57374,13 @@
         <v>1120</v>
       </c>
       <c r="B1121" s="21">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C1121" s="122" t="s">
         <v>2125</v>
       </c>
       <c r="D1121" s="122" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="E1121" s="21">
         <v>2</v>
@@ -57389,7 +57389,7 @@
         <v>1</v>
       </c>
       <c r="G1121" s="122" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -57397,13 +57397,13 @@
         <v>1121</v>
       </c>
       <c r="B1122" s="21">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C1122" s="122" t="s">
         <v>2125</v>
       </c>
       <c r="D1122" s="122" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="E1122" s="21">
         <v>2</v>
@@ -57412,7 +57412,7 @@
         <v>1</v>
       </c>
       <c r="G1122" s="122" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -57420,13 +57420,13 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="21">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C1123" s="122" t="s">
         <v>2125</v>
       </c>
       <c r="D1123" s="122" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="E1123" s="21">
         <v>2</v>
@@ -57435,7 +57435,7 @@
         <v>1</v>
       </c>
       <c r="G1123" s="122" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -57443,22 +57443,22 @@
         <v>1123</v>
       </c>
       <c r="B1124" s="21">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C1124" s="122" t="s">
-        <v>2125</v>
+        <v>2060</v>
       </c>
       <c r="D1124" s="122" t="s">
         <v>2136</v>
       </c>
       <c r="E1124" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1124" s="21">
         <v>1</v>
       </c>
       <c r="G1124" s="122" t="s">
-        <v>2137</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -57466,13 +57466,13 @@
         <v>1124</v>
       </c>
       <c r="B1125" s="21">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C1125" s="122" t="s">
-        <v>2060</v>
+        <v>2142</v>
       </c>
       <c r="D1125" s="122" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
       <c r="E1125" s="21">
         <v>5</v>
@@ -57481,7 +57481,7 @@
         <v>1</v>
       </c>
       <c r="G1125" s="122" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -57489,22 +57489,22 @@
         <v>1125</v>
       </c>
       <c r="B1126" s="21">
-        <v>516</v>
-      </c>
-      <c r="C1126" s="122" t="s">
-        <v>2142</v>
+        <v>517</v>
+      </c>
+      <c r="C1126" s="121" t="s">
+        <v>1668</v>
       </c>
       <c r="D1126" s="122" t="s">
-        <v>2143</v>
+        <v>2071</v>
       </c>
       <c r="E1126" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1126" s="21">
         <v>1</v>
       </c>
       <c r="G1126" s="122" t="s">
-        <v>2144</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1127" spans="1:7">
@@ -57514,20 +57514,20 @@
       <c r="B1127" s="21">
         <v>517</v>
       </c>
-      <c r="C1127" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1127" s="122" t="s">
-        <v>2071</v>
+      <c r="C1127" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1127" s="21">
+        <v>1</v>
       </c>
       <c r="E1127" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1127" s="21">
         <v>1</v>
       </c>
       <c r="G1127" s="122" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1128" spans="1:7">
@@ -57537,20 +57537,20 @@
       <c r="B1128" s="21">
         <v>517</v>
       </c>
-      <c r="C1128" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1128" s="21">
-        <v>1</v>
+      <c r="C1128" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1128" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1128" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1128" s="21">
         <v>1</v>
       </c>
       <c r="G1128" s="122" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -57558,22 +57558,22 @@
         <v>1128</v>
       </c>
       <c r="B1129" s="21">
-        <v>517</v>
-      </c>
-      <c r="C1129" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1129" s="10" t="s">
-        <v>1934</v>
+        <v>518</v>
+      </c>
+      <c r="C1129" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1129" s="122" t="s">
+        <v>2068</v>
       </c>
       <c r="E1129" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1129" s="21">
         <v>1</v>
       </c>
       <c r="G1129" s="122" t="s">
-        <v>2169</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1130" spans="1:7">
@@ -57583,20 +57583,20 @@
       <c r="B1130" s="21">
         <v>518</v>
       </c>
-      <c r="C1130" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1130" s="122" t="s">
-        <v>2068</v>
+      <c r="C1130" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1130" s="21">
+        <v>1</v>
       </c>
       <c r="E1130" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1130" s="21">
         <v>1</v>
       </c>
       <c r="G1130" s="122" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1131" spans="1:7">
@@ -57606,20 +57606,20 @@
       <c r="B1131" s="21">
         <v>518</v>
       </c>
-      <c r="C1131" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1131" s="21">
-        <v>1</v>
+      <c r="C1131" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1131" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1131" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1131" s="21">
         <v>1</v>
       </c>
       <c r="G1131" s="122" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1132" spans="1:7">
@@ -57627,22 +57627,22 @@
         <v>1131</v>
       </c>
       <c r="B1132" s="21">
-        <v>518</v>
-      </c>
-      <c r="C1132" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1132" s="10" t="s">
-        <v>1934</v>
+        <v>519</v>
+      </c>
+      <c r="C1132" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1132" s="122" t="s">
+        <v>2073</v>
       </c>
       <c r="E1132" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1132" s="21">
         <v>1</v>
       </c>
       <c r="G1132" s="122" t="s">
-        <v>2169</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1133" spans="1:7">
@@ -57652,20 +57652,20 @@
       <c r="B1133" s="21">
         <v>519</v>
       </c>
-      <c r="C1133" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1133" s="122" t="s">
-        <v>2073</v>
+      <c r="C1133" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1133" s="21">
+        <v>1</v>
       </c>
       <c r="E1133" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1133" s="21">
         <v>1</v>
       </c>
       <c r="G1133" s="122" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1134" spans="1:7">
@@ -57675,20 +57675,20 @@
       <c r="B1134" s="21">
         <v>519</v>
       </c>
-      <c r="C1134" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1134" s="21">
-        <v>1</v>
+      <c r="C1134" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1134" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1134" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1134" s="21">
         <v>1</v>
       </c>
       <c r="G1134" s="122" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1135" spans="1:7">
@@ -57696,22 +57696,22 @@
         <v>1134</v>
       </c>
       <c r="B1135" s="21">
-        <v>519</v>
-      </c>
-      <c r="C1135" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1135" s="10" t="s">
-        <v>1934</v>
+        <v>520</v>
+      </c>
+      <c r="C1135" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1135" s="122" t="s">
+        <v>2057</v>
       </c>
       <c r="E1135" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1135" s="21">
         <v>1</v>
       </c>
       <c r="G1135" s="122" t="s">
-        <v>2169</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -57724,17 +57724,17 @@
       <c r="C1136" s="121" t="s">
         <v>1668</v>
       </c>
-      <c r="D1136" s="122" t="s">
-        <v>2057</v>
+      <c r="D1136" s="21" t="s">
+        <v>2059</v>
       </c>
       <c r="E1136" s="21">
         <v>2</v>
       </c>
       <c r="F1136" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1136" s="122" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -57747,17 +57747,17 @@
       <c r="C1137" s="121" t="s">
         <v>1668</v>
       </c>
-      <c r="D1137" s="21" t="s">
-        <v>2059</v>
+      <c r="D1137" s="122" t="s">
+        <v>2163</v>
       </c>
       <c r="E1137" s="21">
         <v>2</v>
       </c>
       <c r="F1137" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1137" s="122" t="s">
-        <v>2177</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1138" spans="1:7">
@@ -57771,16 +57771,16 @@
         <v>1668</v>
       </c>
       <c r="D1138" s="122" t="s">
-        <v>2163</v>
+        <v>2178</v>
       </c>
       <c r="E1138" s="21">
         <v>2</v>
       </c>
       <c r="F1138" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1138" s="122" t="s">
-        <v>2161</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -57790,11 +57790,11 @@
       <c r="B1139" s="21">
         <v>520</v>
       </c>
-      <c r="C1139" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1139" s="122" t="s">
-        <v>2178</v>
+      <c r="C1139" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1139" s="122">
+        <v>0</v>
       </c>
       <c r="E1139" s="21">
         <v>2</v>
@@ -57803,7 +57803,7 @@
         <v>4</v>
       </c>
       <c r="G1139" s="122" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1140" spans="1:7">
@@ -57814,19 +57814,19 @@
         <v>520</v>
       </c>
       <c r="C1140" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1140" s="122">
-        <v>0</v>
+        <v>2060</v>
+      </c>
+      <c r="D1140" s="122" t="s">
+        <v>2170</v>
       </c>
       <c r="E1140" s="21">
         <v>2</v>
       </c>
       <c r="F1140" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1140" s="122" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -57837,10 +57837,10 @@
         <v>520</v>
       </c>
       <c r="C1141" s="122" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D1141" s="122" t="s">
-        <v>2170</v>
+        <v>2164</v>
+      </c>
+      <c r="D1141" s="21">
+        <v>0</v>
       </c>
       <c r="E1141" s="21">
         <v>2</v>
@@ -57849,7 +57849,7 @@
         <v>5</v>
       </c>
       <c r="G1141" s="122" t="s">
-        <v>2181</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -57860,19 +57860,19 @@
         <v>520</v>
       </c>
       <c r="C1142" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1142" s="21">
-        <v>0</v>
+        <v>2060</v>
+      </c>
+      <c r="D1142" s="122" t="s">
+        <v>2182</v>
       </c>
       <c r="E1142" s="21">
         <v>2</v>
       </c>
       <c r="F1142" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1142" s="122" t="s">
-        <v>2162</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -57883,10 +57883,10 @@
         <v>520</v>
       </c>
       <c r="C1143" s="122" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D1143" s="122" t="s">
-        <v>2182</v>
+        <v>2164</v>
+      </c>
+      <c r="D1143" s="21">
+        <v>0</v>
       </c>
       <c r="E1143" s="21">
         <v>2</v>
@@ -57895,7 +57895,7 @@
         <v>6</v>
       </c>
       <c r="G1143" s="122" t="s">
-        <v>2171</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1144" spans="1:7">
@@ -57905,20 +57905,20 @@
       <c r="B1144" s="21">
         <v>520</v>
       </c>
-      <c r="C1144" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1144" s="21">
-        <v>0</v>
+      <c r="C1144" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1144" s="122" t="s">
+        <v>2071</v>
       </c>
       <c r="E1144" s="21">
         <v>2</v>
       </c>
       <c r="F1144" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1144" s="122" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -57928,20 +57928,20 @@
       <c r="B1145" s="21">
         <v>520</v>
       </c>
-      <c r="C1145" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1145" s="122" t="s">
-        <v>2071</v>
+      <c r="C1145" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1145" s="21">
+        <v>1</v>
       </c>
       <c r="E1145" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1145" s="21">
         <v>7</v>
       </c>
       <c r="G1145" s="122" t="s">
-        <v>2184</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1146" spans="1:7">
@@ -57951,20 +57951,20 @@
       <c r="B1146" s="21">
         <v>520</v>
       </c>
-      <c r="C1146" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1146" s="21">
-        <v>1</v>
+      <c r="C1146" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1146" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1146" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1146" s="21">
         <v>7</v>
       </c>
       <c r="G1146" s="122" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -57974,20 +57974,20 @@
       <c r="B1147" s="21">
         <v>520</v>
       </c>
-      <c r="C1147" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1147" s="10" t="s">
-        <v>1934</v>
+      <c r="C1147" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1147" s="122" t="s">
+        <v>2185</v>
       </c>
       <c r="E1147" s="21">
         <v>2</v>
       </c>
       <c r="F1147" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1147" s="122" t="s">
-        <v>2169</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1148" spans="1:7">
@@ -57997,20 +57997,20 @@
       <c r="B1148" s="21">
         <v>520</v>
       </c>
-      <c r="C1148" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1148" s="122" t="s">
-        <v>2185</v>
+      <c r="C1148" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1148" s="21">
+        <v>1</v>
       </c>
       <c r="E1148" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1148" s="21">
         <v>8</v>
       </c>
       <c r="G1148" s="122" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1149" spans="1:7">
@@ -58020,20 +58020,20 @@
       <c r="B1149" s="21">
         <v>520</v>
       </c>
-      <c r="C1149" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1149" s="21">
-        <v>1</v>
+      <c r="C1149" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1149" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1149" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1149" s="21">
         <v>8</v>
       </c>
       <c r="G1149" s="122" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1150" spans="1:7">
@@ -58043,20 +58043,20 @@
       <c r="B1150" s="21">
         <v>520</v>
       </c>
-      <c r="C1150" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1150" s="10" t="s">
-        <v>1934</v>
+      <c r="C1150" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1150" s="122" t="s">
+        <v>2189</v>
       </c>
       <c r="E1150" s="21">
         <v>2</v>
       </c>
       <c r="F1150" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1150" s="122" t="s">
-        <v>2188</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1151" spans="1:7">
@@ -58066,20 +58066,20 @@
       <c r="B1151" s="21">
         <v>520</v>
       </c>
-      <c r="C1151" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1151" s="122" t="s">
-        <v>2189</v>
+      <c r="C1151" s="122" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1151" s="21">
+        <v>1</v>
       </c>
       <c r="E1151" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1151" s="21">
         <v>9</v>
       </c>
       <c r="G1151" s="122" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1152" spans="1:7">
@@ -58089,20 +58089,20 @@
       <c r="B1152" s="21">
         <v>520</v>
       </c>
-      <c r="C1152" s="122" t="s">
-        <v>2190</v>
-      </c>
-      <c r="D1152" s="21">
-        <v>1</v>
+      <c r="C1152" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1152" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1152" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1152" s="21">
         <v>9</v>
       </c>
       <c r="G1152" s="122" t="s">
-        <v>2168</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1153" spans="1:7">
@@ -58110,22 +58110,22 @@
         <v>1152</v>
       </c>
       <c r="B1153" s="21">
-        <v>520</v>
-      </c>
-      <c r="C1153" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1153" s="10" t="s">
-        <v>1934</v>
+        <v>521</v>
+      </c>
+      <c r="C1153" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>1744</v>
       </c>
       <c r="E1153" s="21">
         <v>2</v>
       </c>
       <c r="F1153" s="21">
-        <v>9</v>
-      </c>
-      <c r="G1153" s="122" t="s">
-        <v>2191</v>
+        <v>1</v>
+      </c>
+      <c r="G1153" s="3" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="1154" spans="1:7">
@@ -58135,11 +58135,11 @@
       <c r="B1154" s="21">
         <v>521</v>
       </c>
-      <c r="C1154" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1154" s="3" t="s">
-        <v>1744</v>
+      <c r="C1154" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1154" s="9" t="s">
+        <v>1637</v>
       </c>
       <c r="E1154" s="21">
         <v>2</v>
@@ -58147,8 +58147,8 @@
       <c r="F1154" s="21">
         <v>1</v>
       </c>
-      <c r="G1154" s="3" t="s">
-        <v>1967</v>
+      <c r="G1154" s="122" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="1155" spans="1:7">
@@ -58156,13 +58156,13 @@
         <v>1154</v>
       </c>
       <c r="B1155" s="21">
-        <v>521</v>
-      </c>
-      <c r="C1155" s="9" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D1155" s="9" t="s">
-        <v>1637</v>
+        <v>522</v>
+      </c>
+      <c r="C1155" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>1744</v>
       </c>
       <c r="E1155" s="21">
         <v>2</v>
@@ -58170,8 +58170,8 @@
       <c r="F1155" s="21">
         <v>1</v>
       </c>
-      <c r="G1155" s="122" t="s">
-        <v>2173</v>
+      <c r="G1155" s="3" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="1156" spans="1:7">
@@ -58181,20 +58181,20 @@
       <c r="B1156" s="21">
         <v>522</v>
       </c>
-      <c r="C1156" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1156" s="3" t="s">
-        <v>1744</v>
+      <c r="C1156" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1156" s="9" t="s">
+        <v>1637</v>
       </c>
       <c r="E1156" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1156" s="21">
         <v>1</v>
       </c>
-      <c r="G1156" s="3" t="s">
-        <v>1967</v>
+      <c r="G1156" s="21" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="1157" spans="1:7">
@@ -58202,22 +58202,22 @@
         <v>1156</v>
       </c>
       <c r="B1157" s="21">
-        <v>522</v>
-      </c>
-      <c r="C1157" s="9" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D1157" s="9" t="s">
-        <v>1637</v>
+        <v>523</v>
+      </c>
+      <c r="C1157" s="122" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D1157" s="21">
+        <v>5</v>
       </c>
       <c r="E1157" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1157" s="21">
         <v>1</v>
       </c>
-      <c r="G1157" s="21" t="s">
-        <v>1940</v>
+      <c r="G1157" s="122" t="s">
+        <v>2201</v>
       </c>
     </row>
     <row r="1158" spans="1:7">
@@ -58225,13 +58225,13 @@
         <v>1157</v>
       </c>
       <c r="B1158" s="21">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1158" s="122" t="s">
         <v>2200</v>
       </c>
       <c r="D1158" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1158" s="21">
         <v>3</v>
@@ -58240,7 +58240,7 @@
         <v>1</v>
       </c>
       <c r="G1158" s="122" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1159" spans="1:7">
@@ -58248,13 +58248,13 @@
         <v>1158</v>
       </c>
       <c r="B1159" s="21">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C1159" s="122" t="s">
         <v>2200</v>
       </c>
       <c r="D1159" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1159" s="21">
         <v>3</v>
@@ -58263,7 +58263,7 @@
         <v>1</v>
       </c>
       <c r="G1159" s="122" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1160" spans="1:7">
@@ -58271,22 +58271,22 @@
         <v>1159</v>
       </c>
       <c r="B1160" s="21">
-        <v>525</v>
-      </c>
-      <c r="C1160" s="122" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D1160" s="21">
-        <v>3</v>
+        <v>526</v>
+      </c>
+      <c r="C1160" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1160" s="122" t="s">
+        <v>2071</v>
       </c>
       <c r="E1160" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1160" s="21">
         <v>1</v>
       </c>
       <c r="G1160" s="122" t="s">
-        <v>2203</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1161" spans="1:7">
@@ -58296,20 +58296,20 @@
       <c r="B1161" s="21">
         <v>526</v>
       </c>
-      <c r="C1161" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1161" s="122" t="s">
-        <v>2071</v>
+      <c r="C1161" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1161" s="21">
+        <v>7</v>
       </c>
       <c r="E1161" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1161" s="21">
         <v>1</v>
       </c>
       <c r="G1161" s="122" t="s">
-        <v>2157</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1162" spans="1:7">
@@ -58319,20 +58319,20 @@
       <c r="B1162" s="21">
         <v>526</v>
       </c>
-      <c r="C1162" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1162" s="21">
-        <v>7</v>
+      <c r="C1162" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1162" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1162" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1162" s="21">
         <v>1</v>
       </c>
       <c r="G1162" s="122" t="s">
-        <v>2204</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1163" spans="1:7">
@@ -58342,20 +58342,20 @@
       <c r="B1163" s="21">
         <v>526</v>
       </c>
-      <c r="C1163" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1163" s="10" t="s">
-        <v>1934</v>
+      <c r="C1163" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1163" s="122" t="s">
+        <v>2068</v>
       </c>
       <c r="E1163" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1163" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1163" s="122" t="s">
-        <v>2169</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1164" spans="1:7">
@@ -58365,20 +58365,20 @@
       <c r="B1164" s="21">
         <v>526</v>
       </c>
-      <c r="C1164" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1164" s="122" t="s">
-        <v>2068</v>
+      <c r="C1164" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1164" s="21">
+        <v>7</v>
       </c>
       <c r="E1164" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1164" s="21">
         <v>2</v>
       </c>
       <c r="G1164" s="122" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1165" spans="1:7">
@@ -58388,20 +58388,20 @@
       <c r="B1165" s="21">
         <v>526</v>
       </c>
-      <c r="C1165" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1165" s="21">
-        <v>7</v>
+      <c r="C1165" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1165" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1165" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1165" s="21">
         <v>2</v>
       </c>
       <c r="G1165" s="122" t="s">
-        <v>2204</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1166" spans="1:7">
@@ -58411,20 +58411,20 @@
       <c r="B1166" s="21">
         <v>526</v>
       </c>
-      <c r="C1166" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1166" s="10" t="s">
-        <v>1934</v>
+      <c r="C1166" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1166" s="122" t="s">
+        <v>2073</v>
       </c>
       <c r="E1166" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1166" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1166" s="122" t="s">
-        <v>2169</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1167" spans="1:7">
@@ -58434,20 +58434,20 @@
       <c r="B1167" s="21">
         <v>526</v>
       </c>
-      <c r="C1167" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1167" s="122" t="s">
-        <v>2073</v>
+      <c r="C1167" s="122" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1167" s="21">
+        <v>7</v>
       </c>
       <c r="E1167" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1167" s="21">
         <v>3</v>
       </c>
       <c r="G1167" s="122" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1168" spans="1:7">
@@ -58457,20 +58457,20 @@
       <c r="B1168" s="21">
         <v>526</v>
       </c>
-      <c r="C1168" s="122" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1168" s="21">
-        <v>7</v>
+      <c r="C1168" s="9" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1168" s="10" t="s">
+        <v>1934</v>
       </c>
       <c r="E1168" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1168" s="21">
         <v>3</v>
       </c>
       <c r="G1168" s="122" t="s">
-        <v>2206</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1169" spans="1:7">
@@ -58478,44 +58478,21 @@
         <v>1168</v>
       </c>
       <c r="B1169" s="21">
-        <v>526</v>
-      </c>
-      <c r="C1169" s="9" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1169" s="10" t="s">
-        <v>1934</v>
+        <v>527</v>
+      </c>
+      <c r="C1169" s="121" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1169" s="123" t="s">
+        <v>2136</v>
       </c>
       <c r="E1169" s="21">
         <v>5</v>
       </c>
       <c r="F1169" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1169" s="122" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:7">
-      <c r="A1170" s="21">
-        <v>1169</v>
-      </c>
-      <c r="B1170" s="21">
-        <v>527</v>
-      </c>
-      <c r="C1170" s="121" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D1170" s="123" t="s">
-        <v>2136</v>
-      </c>
-      <c r="E1170" s="21">
-        <v>5</v>
-      </c>
-      <c r="F1170" s="21">
-        <v>2</v>
-      </c>
-      <c r="G1170" s="122" t="s">
         <v>2212</v>
       </c>
     </row>

--- a/config_10.26/permission_server_config.xlsx
+++ b/config_10.26/permission_server_config.xlsx
@@ -9453,10 +9453,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_drop_act_nor</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_10349</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -10312,6 +10308,10 @@
   </si>
   <si>
     <t>day_delay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="498" spans="1:17" customFormat="1">
       <c r="A498" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>804</v>
@@ -16337,10 +16337,10 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="118" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B514" s="118" t="s">
         <v>2111</v>
-      </c>
-      <c r="B514" s="118" t="s">
-        <v>2112</v>
       </c>
       <c r="C514" s="1">
         <v>510</v>
@@ -16348,10 +16348,10 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B518" s="118" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C518" s="1">
         <v>511</v>
@@ -16359,10 +16359,10 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B519" s="118" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C519" s="1">
         <v>512</v>
@@ -16370,10 +16370,10 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B520" s="118" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C520" s="1">
         <v>513</v>
@@ -16381,10 +16381,10 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="118" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B521" s="118" t="s">
         <v>2136</v>
-      </c>
-      <c r="B521" s="118" t="s">
-        <v>2137</v>
       </c>
       <c r="C521" s="1">
         <v>514</v>
@@ -16392,10 +16392,10 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>2158</v>
       </c>
       <c r="C524" s="1">
         <v>520</v>
@@ -16403,10 +16403,10 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="118" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B527" s="118" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C527" s="1">
         <v>522</v>
@@ -16424,10 +16424,10 @@
   <dimension ref="A1:P435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D401" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I444" sqref="I444"/>
+      <selection pane="bottomRight" activeCell="E415" sqref="E415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16478,7 +16478,7 @@
         <v>825</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>826</v>
@@ -27909,7 +27909,7 @@
         <v>1</v>
       </c>
       <c r="C331" s="119" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>1475</v>
@@ -29728,7 +29728,7 @@
         <v>1</v>
       </c>
       <c r="C384" s="120" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D384" s="96" t="s">
         <v>1577</v>
@@ -30381,7 +30381,7 @@
         <v>1</v>
       </c>
       <c r="C403" s="119" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D403" s="12" t="s">
         <v>1620</v>
@@ -30414,7 +30414,7 @@
         <v>1</v>
       </c>
       <c r="C404" s="119" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D404" s="7" t="s">
         <v>1621</v>
@@ -30575,7 +30575,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="119" t="s">
-        <v>2096</v>
+        <v>2239</v>
       </c>
       <c r="D409" s="119" t="s">
         <v>2091</v>
@@ -30605,7 +30605,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" s="119" t="s">
         <v>2094</v>
@@ -30641,10 +30641,10 @@
         <v>1</v>
       </c>
       <c r="C411" s="119" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D411" s="119" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G411" s="7">
         <v>506</v>
@@ -30674,10 +30674,10 @@
         <v>1</v>
       </c>
       <c r="C412" s="119" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D412" s="119" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G412" s="7">
         <v>507</v>
@@ -30707,10 +30707,10 @@
         <v>1</v>
       </c>
       <c r="C413" s="119" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D413" s="119" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G413" s="7">
         <v>508</v>
@@ -30740,10 +30740,10 @@
         <v>1</v>
       </c>
       <c r="C414" s="119" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D414" s="119" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G414" s="7">
         <v>509</v>
@@ -30773,10 +30773,10 @@
         <v>1</v>
       </c>
       <c r="C415" s="119" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G415" s="7">
         <v>510</v>
@@ -30806,10 +30806,10 @@
         <v>1</v>
       </c>
       <c r="C416" s="119" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G416" s="7">
         <v>510</v>
@@ -30839,10 +30839,10 @@
         <v>1</v>
       </c>
       <c r="C417" s="119" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G417" s="7">
         <v>510</v>
@@ -30872,10 +30872,10 @@
         <v>1</v>
       </c>
       <c r="C418" s="119" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D418" s="119" t="s">
         <v>2138</v>
-      </c>
-      <c r="D418" s="119" t="s">
-        <v>2139</v>
       </c>
       <c r="G418" s="7">
         <v>516</v>
@@ -30905,10 +30905,10 @@
         <v>1</v>
       </c>
       <c r="C419" s="122" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D419" s="119" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="G419" s="7">
         <v>517</v>
@@ -30927,7 +30927,7 @@
         <v>1632787200</v>
       </c>
       <c r="M419" s="119" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="420" spans="1:13">
@@ -30938,10 +30938,10 @@
         <v>1</v>
       </c>
       <c r="C420" s="122" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D420" s="119" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="G420" s="7">
         <v>518</v>
@@ -30960,7 +30960,7 @@
         <v>1632787200</v>
       </c>
       <c r="M420" s="119" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="421" spans="1:13">
@@ -30971,10 +30971,10 @@
         <v>1</v>
       </c>
       <c r="C421" s="122" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D421" s="119" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="G421" s="7">
         <v>519</v>
@@ -30993,7 +30993,7 @@
         <v>1632787200</v>
       </c>
       <c r="M421" s="119" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="422" spans="1:13">
@@ -31004,10 +31004,10 @@
         <v>1</v>
       </c>
       <c r="C422" s="119" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G422" s="7">
         <v>521</v>
@@ -31026,7 +31026,7 @@
         <v>1619452800</v>
       </c>
       <c r="M422" s="7" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="423" spans="1:13">
@@ -31037,10 +31037,10 @@
         <v>1</v>
       </c>
       <c r="C423" s="119" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D423" s="119" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="G423" s="7">
         <v>523</v>
@@ -31059,7 +31059,7 @@
         <v>1634601600</v>
       </c>
       <c r="M423" s="119" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="424" spans="1:13">
@@ -31070,10 +31070,10 @@
         <v>1</v>
       </c>
       <c r="C424" s="119" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D424" s="119" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="G424" s="7">
         <v>524</v>
@@ -31092,7 +31092,7 @@
         <v>1634601600</v>
       </c>
       <c r="M424" s="119" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="425" spans="1:13">
@@ -31103,10 +31103,10 @@
         <v>1</v>
       </c>
       <c r="C425" s="119" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D425" s="119" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="G425" s="7">
         <v>525</v>
@@ -31125,7 +31125,7 @@
         <v>1634601600</v>
       </c>
       <c r="M425" s="119" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="426" spans="1:13">
@@ -31136,10 +31136,10 @@
         <v>1</v>
       </c>
       <c r="C426" s="119" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G426" s="7">
         <v>526</v>
@@ -31158,7 +31158,7 @@
         <v>1634601600</v>
       </c>
       <c r="M426" s="119" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="427" spans="1:13">
@@ -31169,10 +31169,10 @@
         <v>1</v>
       </c>
       <c r="C427" s="119" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D427" s="119" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G427" s="7">
         <v>527</v>
@@ -31202,10 +31202,10 @@
         <v>1</v>
       </c>
       <c r="C428" s="119" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D428" s="119" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G428" s="7">
         <v>528</v>
@@ -31226,7 +31226,7 @@
         <v>1635206400</v>
       </c>
       <c r="M428" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="429" spans="1:13">
@@ -31237,10 +31237,10 @@
         <v>1</v>
       </c>
       <c r="C429" s="119" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D429" s="119" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G429" s="7">
         <v>529</v>
@@ -31261,7 +31261,7 @@
         <v>1635206400</v>
       </c>
       <c r="M429" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="430" spans="1:13">
@@ -31272,10 +31272,10 @@
         <v>1</v>
       </c>
       <c r="C430" s="119" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="D430" s="119" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G430" s="7">
         <v>530</v>
@@ -31296,7 +31296,7 @@
         <v>1635206400</v>
       </c>
       <c r="M430" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="431" spans="1:13">
@@ -31307,10 +31307,10 @@
         <v>1</v>
       </c>
       <c r="C431" s="119" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D431" s="119" t="s">
         <v>2225</v>
-      </c>
-      <c r="D431" s="119" t="s">
-        <v>2226</v>
       </c>
       <c r="G431" s="7">
         <v>531</v>
@@ -31331,7 +31331,7 @@
         <v>1635206400</v>
       </c>
       <c r="M431" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="432" spans="1:13">
@@ -31342,10 +31342,10 @@
         <v>1</v>
       </c>
       <c r="C432" s="119" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D432" s="119" t="s">
         <v>2229</v>
-      </c>
-      <c r="D432" s="119" t="s">
-        <v>2230</v>
       </c>
       <c r="G432" s="7">
         <v>531</v>
@@ -31366,7 +31366,7 @@
         <v>1635206400</v>
       </c>
       <c r="M432" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="433" spans="1:13">
@@ -31377,10 +31377,10 @@
         <v>1</v>
       </c>
       <c r="C433" s="119" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D433" s="119" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G433" s="7">
         <v>528</v>
@@ -31392,13 +31392,13 @@
         <v>1</v>
       </c>
       <c r="J433" s="119" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="L433" s="7">
         <v>1635206400</v>
       </c>
       <c r="M433" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="434" spans="1:13">
@@ -31409,10 +31409,10 @@
         <v>1</v>
       </c>
       <c r="C434" s="119" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D434" s="119" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="G434" s="7">
         <v>529</v>
@@ -31424,13 +31424,13 @@
         <v>1</v>
       </c>
       <c r="J434" s="119" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="L434" s="7">
         <v>1635206400</v>
       </c>
       <c r="M434" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="435" spans="1:13">
@@ -31441,10 +31441,10 @@
         <v>1</v>
       </c>
       <c r="C435" s="119" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D435" s="119" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="G435" s="7">
         <v>530</v>
@@ -31456,13 +31456,13 @@
         <v>1</v>
       </c>
       <c r="J435" s="119" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="L435" s="7">
         <v>1635206400</v>
       </c>
       <c r="M435" s="119" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
   </sheetData>
@@ -57978,7 +57978,7 @@
         <v>1</v>
       </c>
       <c r="G1111" s="122" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1112" spans="1:7">
@@ -57989,7 +57989,7 @@
         <v>507</v>
       </c>
       <c r="C1112" s="124" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D1112" s="44" t="s">
         <v>1745</v>
@@ -58024,7 +58024,7 @@
         <v>1</v>
       </c>
       <c r="G1113" s="122" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1114" spans="1:7">
@@ -58047,7 +58047,7 @@
         <v>1</v>
       </c>
       <c r="G1114" s="122" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1115" spans="1:7">
@@ -58093,7 +58093,7 @@
         <v>1</v>
       </c>
       <c r="G1116" s="122" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1117" spans="1:7">
@@ -58116,7 +58116,7 @@
         <v>1</v>
       </c>
       <c r="G1117" s="122" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1118" spans="1:7">
@@ -58162,7 +58162,7 @@
         <v>1</v>
       </c>
       <c r="G1119" s="122" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1120" spans="1:7">
@@ -58196,19 +58196,19 @@
         <v>511</v>
       </c>
       <c r="C1121" s="122" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D1121" s="122" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E1121" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1121" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="122" t="s">
         <v>2126</v>
-      </c>
-      <c r="E1121" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1121" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1121" s="122" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1122" spans="1:7">
@@ -58219,19 +58219,19 @@
         <v>512</v>
       </c>
       <c r="C1122" s="122" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D1122" s="122" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E1122" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="122" t="s">
         <v>2129</v>
-      </c>
-      <c r="E1122" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1122" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1122" s="122" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="1123" spans="1:7">
@@ -58242,19 +58242,19 @@
         <v>513</v>
       </c>
       <c r="C1123" s="122" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D1123" s="122" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E1123" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1123" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="122" t="s">
         <v>2132</v>
-      </c>
-      <c r="E1123" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1123" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1123" s="122" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="1124" spans="1:7">
@@ -58265,19 +58265,19 @@
         <v>514</v>
       </c>
       <c r="C1124" s="122" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D1124" s="122" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1124" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1124" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="122" t="s">
         <v>2134</v>
-      </c>
-      <c r="E1124" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1124" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1124" s="122" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="1125" spans="1:7">
@@ -58291,7 +58291,7 @@
         <v>2059</v>
       </c>
       <c r="D1125" s="122" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1125" s="21">
         <v>5</v>
@@ -58300,7 +58300,7 @@
         <v>1</v>
       </c>
       <c r="G1125" s="122" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1126" spans="1:7">
@@ -58311,10 +58311,10 @@
         <v>516</v>
       </c>
       <c r="C1126" s="122" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D1126" s="122" t="s">
         <v>2140</v>
-      </c>
-      <c r="D1126" s="122" t="s">
-        <v>2141</v>
       </c>
       <c r="E1126" s="21">
         <v>5</v>
@@ -58323,7 +58323,7 @@
         <v>1</v>
       </c>
       <c r="G1126" s="122" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1127" spans="1:7">
@@ -58346,7 +58346,7 @@
         <v>1</v>
       </c>
       <c r="G1127" s="122" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1128" spans="1:7">
@@ -58357,7 +58357,7 @@
         <v>517</v>
       </c>
       <c r="C1128" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1128" s="21">
         <v>1</v>
@@ -58369,7 +58369,7 @@
         <v>1</v>
       </c>
       <c r="G1128" s="122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1129" spans="1:7">
@@ -58392,7 +58392,7 @@
         <v>1</v>
       </c>
       <c r="G1129" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1130" spans="1:7">
@@ -58415,7 +58415,7 @@
         <v>1</v>
       </c>
       <c r="G1130" s="122" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1131" spans="1:7">
@@ -58426,7 +58426,7 @@
         <v>518</v>
       </c>
       <c r="C1131" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1131" s="21">
         <v>1</v>
@@ -58438,7 +58438,7 @@
         <v>1</v>
       </c>
       <c r="G1131" s="122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1132" spans="1:7">
@@ -58461,7 +58461,7 @@
         <v>1</v>
       </c>
       <c r="G1132" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1133" spans="1:7">
@@ -58484,7 +58484,7 @@
         <v>1</v>
       </c>
       <c r="G1133" s="122" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1134" spans="1:7">
@@ -58495,7 +58495,7 @@
         <v>519</v>
       </c>
       <c r="C1134" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1134" s="21">
         <v>1</v>
@@ -58507,7 +58507,7 @@
         <v>1</v>
       </c>
       <c r="G1134" s="122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1135" spans="1:7">
@@ -58530,7 +58530,7 @@
         <v>1</v>
       </c>
       <c r="G1135" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1136" spans="1:7">
@@ -58553,7 +58553,7 @@
         <v>1</v>
       </c>
       <c r="G1136" s="122" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1137" spans="1:7">
@@ -58576,7 +58576,7 @@
         <v>2</v>
       </c>
       <c r="G1137" s="122" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1138" spans="1:7">
@@ -58590,7 +58590,7 @@
         <v>1667</v>
       </c>
       <c r="D1138" s="122" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E1138" s="21">
         <v>2</v>
@@ -58599,7 +58599,7 @@
         <v>3</v>
       </c>
       <c r="G1138" s="122" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1139" spans="1:7">
@@ -58613,7 +58613,7 @@
         <v>1667</v>
       </c>
       <c r="D1139" s="122" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E1139" s="21">
         <v>2</v>
@@ -58622,7 +58622,7 @@
         <v>4</v>
       </c>
       <c r="G1139" s="122" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1140" spans="1:7">
@@ -58633,7 +58633,7 @@
         <v>520</v>
       </c>
       <c r="C1140" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1140" s="122">
         <v>0</v>
@@ -58645,7 +58645,7 @@
         <v>4</v>
       </c>
       <c r="G1140" s="122" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1141" spans="1:7">
@@ -58659,7 +58659,7 @@
         <v>2059</v>
       </c>
       <c r="D1141" s="122" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E1141" s="21">
         <v>2</v>
@@ -58668,7 +58668,7 @@
         <v>5</v>
       </c>
       <c r="G1141" s="122" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1142" spans="1:7">
@@ -58679,7 +58679,7 @@
         <v>520</v>
       </c>
       <c r="C1142" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1142" s="21">
         <v>0</v>
@@ -58691,7 +58691,7 @@
         <v>5</v>
       </c>
       <c r="G1142" s="122" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -58705,7 +58705,7 @@
         <v>2059</v>
       </c>
       <c r="D1143" s="122" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E1143" s="21">
         <v>2</v>
@@ -58714,7 +58714,7 @@
         <v>6</v>
       </c>
       <c r="G1143" s="122" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1144" spans="1:7">
@@ -58725,7 +58725,7 @@
         <v>520</v>
       </c>
       <c r="C1144" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1144" s="21">
         <v>0</v>
@@ -58737,7 +58737,7 @@
         <v>6</v>
       </c>
       <c r="G1144" s="122" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1145" spans="1:7">
@@ -58760,7 +58760,7 @@
         <v>7</v>
       </c>
       <c r="G1145" s="122" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1146" spans="1:7">
@@ -58771,7 +58771,7 @@
         <v>520</v>
       </c>
       <c r="C1146" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1146" s="21">
         <v>1</v>
@@ -58783,7 +58783,7 @@
         <v>7</v>
       </c>
       <c r="G1146" s="122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -58806,7 +58806,7 @@
         <v>7</v>
       </c>
       <c r="G1147" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1148" spans="1:7">
@@ -58820,7 +58820,7 @@
         <v>1667</v>
       </c>
       <c r="D1148" s="122" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1148" s="21">
         <v>2</v>
@@ -58829,7 +58829,7 @@
         <v>8</v>
       </c>
       <c r="G1148" s="122" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1149" spans="1:7">
@@ -58840,7 +58840,7 @@
         <v>520</v>
       </c>
       <c r="C1149" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1149" s="21">
         <v>1</v>
@@ -58852,7 +58852,7 @@
         <v>8</v>
       </c>
       <c r="G1149" s="122" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1150" spans="1:7">
@@ -58875,7 +58875,7 @@
         <v>8</v>
       </c>
       <c r="G1150" s="122" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1151" spans="1:7">
@@ -58889,7 +58889,7 @@
         <v>1667</v>
       </c>
       <c r="D1151" s="122" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E1151" s="21">
         <v>2</v>
@@ -58898,7 +58898,7 @@
         <v>9</v>
       </c>
       <c r="G1151" s="122" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1152" spans="1:7">
@@ -58909,7 +58909,7 @@
         <v>520</v>
       </c>
       <c r="C1152" s="122" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D1152" s="21">
         <v>1</v>
@@ -58921,7 +58921,7 @@
         <v>9</v>
       </c>
       <c r="G1152" s="122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1153" spans="1:7">
@@ -58944,7 +58944,7 @@
         <v>9</v>
       </c>
       <c r="G1153" s="122" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1154" spans="1:7">
@@ -58990,7 +58990,7 @@
         <v>1</v>
       </c>
       <c r="G1155" s="122" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1156" spans="1:7">
@@ -59047,7 +59047,7 @@
         <v>523</v>
       </c>
       <c r="C1158" s="122" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D1158" s="21">
         <v>5</v>
@@ -59059,7 +59059,7 @@
         <v>1</v>
       </c>
       <c r="G1158" s="122" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1159" spans="1:7">
@@ -59070,7 +59070,7 @@
         <v>524</v>
       </c>
       <c r="C1159" s="122" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D1159" s="21">
         <v>4</v>
@@ -59082,7 +59082,7 @@
         <v>1</v>
       </c>
       <c r="G1159" s="122" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1160" spans="1:7">
@@ -59093,7 +59093,7 @@
         <v>525</v>
       </c>
       <c r="C1160" s="122" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D1160" s="21">
         <v>3</v>
@@ -59105,7 +59105,7 @@
         <v>1</v>
       </c>
       <c r="G1160" s="122" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1161" spans="1:7">
@@ -59128,7 +59128,7 @@
         <v>1</v>
       </c>
       <c r="G1161" s="122" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1162" spans="1:7">
@@ -59139,7 +59139,7 @@
         <v>526</v>
       </c>
       <c r="C1162" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1162" s="21">
         <v>7</v>
@@ -59151,7 +59151,7 @@
         <v>1</v>
       </c>
       <c r="G1162" s="122" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1163" spans="1:7">
@@ -59174,7 +59174,7 @@
         <v>1</v>
       </c>
       <c r="G1163" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1164" spans="1:7">
@@ -59197,7 +59197,7 @@
         <v>2</v>
       </c>
       <c r="G1164" s="122" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1165" spans="1:7">
@@ -59208,7 +59208,7 @@
         <v>526</v>
       </c>
       <c r="C1165" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1165" s="21">
         <v>7</v>
@@ -59220,7 +59220,7 @@
         <v>2</v>
       </c>
       <c r="G1165" s="122" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1166" spans="1:7">
@@ -59243,7 +59243,7 @@
         <v>2</v>
       </c>
       <c r="G1166" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1167" spans="1:7">
@@ -59266,7 +59266,7 @@
         <v>3</v>
       </c>
       <c r="G1167" s="122" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1168" spans="1:7">
@@ -59277,7 +59277,7 @@
         <v>526</v>
       </c>
       <c r="C1168" s="122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="D1168" s="21">
         <v>7</v>
@@ -59289,7 +59289,7 @@
         <v>3</v>
       </c>
       <c r="G1168" s="122" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1169" spans="1:7">
@@ -59312,7 +59312,7 @@
         <v>3</v>
       </c>
       <c r="G1169" s="122" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1170" spans="1:7">
@@ -59326,7 +59326,7 @@
         <v>1667</v>
       </c>
       <c r="D1170" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1170" s="21">
         <v>5</v>
@@ -59335,7 +59335,7 @@
         <v>2</v>
       </c>
       <c r="G1170" s="122" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1171" spans="1:7">
@@ -59395,7 +59395,7 @@
         <v>1667</v>
       </c>
       <c r="D1173" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1173" s="21">
         <v>5</v>
@@ -59404,7 +59404,7 @@
         <v>1</v>
       </c>
       <c r="G1173" s="122" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1174" spans="1:7">
@@ -59418,7 +59418,7 @@
         <v>2059</v>
       </c>
       <c r="D1174" s="122" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E1174" s="21">
         <v>5</v>
@@ -59427,7 +59427,7 @@
         <v>1</v>
       </c>
       <c r="G1174" s="122" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1175" spans="1:7">
@@ -59438,7 +59438,7 @@
         <v>528</v>
       </c>
       <c r="C1175" s="122" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D1175" s="21">
         <v>1</v>
@@ -59450,7 +59450,7 @@
         <v>1</v>
       </c>
       <c r="G1175" s="122" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1176" spans="1:7">
@@ -59461,7 +59461,7 @@
         <v>528</v>
       </c>
       <c r="C1176" s="122" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D1176" s="21">
         <v>3</v>
@@ -59473,7 +59473,7 @@
         <v>1</v>
       </c>
       <c r="G1176" s="122" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1177" spans="1:7">
@@ -59533,7 +59533,7 @@
         <v>1667</v>
       </c>
       <c r="D1179" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1179" s="21">
         <v>5</v>
@@ -59542,7 +59542,7 @@
         <v>1</v>
       </c>
       <c r="G1179" s="122" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1180" spans="1:7">
@@ -59556,7 +59556,7 @@
         <v>2059</v>
       </c>
       <c r="D1180" s="122" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E1180" s="21">
         <v>5</v>
@@ -59565,7 +59565,7 @@
         <v>1</v>
       </c>
       <c r="G1180" s="122" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1181" spans="1:7">
@@ -59576,7 +59576,7 @@
         <v>529</v>
       </c>
       <c r="C1181" s="122" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D1181" s="21">
         <v>4</v>
@@ -59588,7 +59588,7 @@
         <v>1</v>
       </c>
       <c r="G1181" s="122" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1182" spans="1:7">
@@ -59599,7 +59599,7 @@
         <v>529</v>
       </c>
       <c r="C1182" s="122" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D1182" s="21">
         <v>6</v>
@@ -59611,7 +59611,7 @@
         <v>1</v>
       </c>
       <c r="G1182" s="122" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1183" spans="1:7">
@@ -59671,7 +59671,7 @@
         <v>1667</v>
       </c>
       <c r="D1185" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1185" s="21">
         <v>5</v>
@@ -59680,7 +59680,7 @@
         <v>1</v>
       </c>
       <c r="G1185" s="122" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1186" spans="1:7">
@@ -59694,7 +59694,7 @@
         <v>2059</v>
       </c>
       <c r="D1186" s="122" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E1186" s="21">
         <v>5</v>
@@ -59703,7 +59703,7 @@
         <v>1</v>
       </c>
       <c r="G1186" s="122" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1187" spans="1:7">
@@ -59714,7 +59714,7 @@
         <v>530</v>
       </c>
       <c r="C1187" s="122" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D1187" s="21">
         <v>7</v>
@@ -59726,7 +59726,7 @@
         <v>1</v>
       </c>
       <c r="G1187" s="122" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1188" spans="1:7">
@@ -59763,7 +59763,7 @@
         <v>1667</v>
       </c>
       <c r="D1189" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E1189" s="21">
         <v>5</v>
@@ -59772,7 +59772,7 @@
         <v>1</v>
       </c>
       <c r="G1189" s="122" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1190" spans="1:7">
@@ -59786,7 +59786,7 @@
         <v>2059</v>
       </c>
       <c r="D1190" s="122" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E1190" s="21">
         <v>5</v>
@@ -59795,7 +59795,7 @@
         <v>1</v>
       </c>
       <c r="G1190" s="122" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1191" spans="1:7">
@@ -59806,7 +59806,7 @@
         <v>531</v>
       </c>
       <c r="C1191" s="122" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D1191" s="21">
         <v>1</v>
@@ -59818,7 +59818,7 @@
         <v>1</v>
       </c>
       <c r="G1191" s="122" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
   </sheetData>
@@ -59967,7 +59967,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>1723</v>
@@ -59990,7 +59990,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>1723</v>
@@ -60013,7 +60013,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1723</v>
@@ -60036,7 +60036,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>1723</v>
@@ -60105,13 +60105,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1723</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -60174,7 +60174,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>1723</v>
@@ -60226,7 +60226,7 @@
         <v>1723</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E17">
         <v>2</v>
